--- a/Excels/Formations.xlsx
+++ b/Excels/Formations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12240"/>
+    <workbookView windowWidth="21240" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>

--- a/Excels/Formations.xlsx
+++ b/Excels/Formations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="10560"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>唯一标识</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>all</t>
-  </si>
-  <si>
-    <t>client</t>
   </si>
   <si>
     <t>0;0;0;1;0;0;0;0;0</t>
@@ -1001,7 +998,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1041,7 +1038,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1049,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1057,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1065,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Formations.xlsx
+++ b/Excels/Formations.xlsx
@@ -998,7 +998,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>

--- a/Excels/Formations.xlsx
+++ b/Excels/Formations.xlsx
@@ -55,7 +55,7 @@
     <t>0;0;0;1;0;0;0;0;0</t>
   </si>
   <si>
-    <t>0;0;1;0;0;0;0;0;0</t>
+    <t>0;0;2;0;0;0;0;0;0</t>
   </si>
   <si>
     <t>0;0;1;0;1;0;0;0;0</t>
@@ -998,7 +998,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
